--- a/SourceCode/HRManagement/HRManagement/bin/Debug/output.xlsx
+++ b/SourceCode/HRManagement/HRManagement/bin/Debug/output.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$E$2</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -14,7 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Mã Hợp Đồng</t>
+    <t>Mã Nhân Viên</t>
+  </si>
+  <si>
+    <t>Tên Nhân Viên</t>
+  </si>
+  <si>
+    <t>Số Hợp Đồng</t>
   </si>
   <si>
     <t>Tên Hợp Đồng</t>
@@ -23,10 +29,16 @@
     <t>Loại Hợp Đồng</t>
   </si>
   <si>
-    <t>CT01924</t>
-  </si>
-  <si>
-    <t>Hợp đồng chính thức</t>
+    <t>VP01924</t>
+  </si>
+  <si>
+    <t>Vũ Văn Quân</t>
+  </si>
+  <si>
+    <t>CT/00001</t>
+  </si>
+  <si>
+    <t>Hơp đồng chính thức</t>
   </si>
   <si>
     <t>Chính thức</t>
@@ -365,9 +377,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="41.71" customWidth="1" style="1"/>
-    <col min="2" max="2" width="41.71" customWidth="1" style="1"/>
-    <col min="3" max="3" width="41.71" customWidth="1" style="1"/>
+    <col min="1" max="1" width="27.14" customWidth="1" style="1"/>
+    <col min="2" max="2" width="21.71" customWidth="1" style="1"/>
+    <col min="3" max="3" width="21.71" customWidth="1" style="1"/>
+    <col min="4" max="4" width="27.14" customWidth="1" style="1"/>
+    <col min="5" max="5" width="27.43" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -380,23 +394,35 @@
       <c t="s" r="C1" s="1">
         <v>2</v>
       </c>
+      <c t="s" r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c t="s" r="E1" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" r="A2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c t="s" r="B2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c t="s" r="C2" s="1">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c t="s" r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c t="s" r="E2" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C2"/>
+  <autoFilter ref="A1:E2"/>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/SourceCode/HRManagement/HRManagement/bin/Debug/output.xlsx
+++ b/SourceCode/HRManagement/HRManagement/bin/Debug/output.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$D$9</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -14,40 +14,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Mã Nhân Viên</t>
-  </si>
-  <si>
-    <t>Tên Nhân Viên</t>
-  </si>
-  <si>
-    <t>Số Hợp Đồng</t>
-  </si>
-  <si>
-    <t>Tên Hợp Đồng</t>
-  </si>
-  <si>
-    <t>Loại Hợp Đồng</t>
-  </si>
-  <si>
-    <t>VP01924</t>
-  </si>
-  <si>
-    <t>Vũ Văn Quân</t>
-  </si>
-  <si>
-    <t>CT/00001</t>
-  </si>
-  <si>
-    <t>Hơp đồng chính thức</t>
-  </si>
-  <si>
-    <t>Chính thức</t>
+    <t>Mã Bảo Hiểm</t>
+  </si>
+  <si>
+    <t>Tên Bảo Hiểm</t>
+  </si>
+  <si>
+    <t>Loại Bảo Hiểm</t>
+  </si>
+  <si>
+    <t>Số Tiền</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Bảo hiểm tiền gửi</t>
+  </si>
+  <si>
+    <t>Bảo hiểm nhà nước</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Thất nghiệp</t>
+  </si>
+  <si>
+    <t>TNLD</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Tai nạn lao động</t>
+  </si>
+  <si>
+    <t>XH</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Xã hội</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Y tế</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Nhân thọ</t>
+  </si>
+  <si>
+    <t>Bảo hiểm thương mại</t>
+  </si>
+  <si>
+    <t>PNT</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Phi nhân thọ</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Sức khỏe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,###\ &quot;VNĐ&quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -92,9 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -377,11 +419,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="27.14" customWidth="1" style="1"/>
-    <col min="2" max="2" width="21.71" customWidth="1" style="1"/>
-    <col min="3" max="3" width="21.71" customWidth="1" style="1"/>
-    <col min="4" max="4" width="27.14" customWidth="1" style="1"/>
-    <col min="5" max="5" width="27.43" customWidth="1" style="1"/>
+    <col min="1" max="1" width="34.71" customWidth="1" style="1"/>
+    <col min="2" max="2" width="34.71" customWidth="1" style="1"/>
+    <col min="3" max="3" width="27.71" customWidth="1" style="1"/>
+    <col min="4" max="4" width="28" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -397,32 +438,124 @@
       <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
-      <c t="s" r="E1" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c t="s" r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c t="s" r="B2" s="1">
         <v>5</v>
       </c>
-      <c t="s" r="B2" s="1">
+      <c t="s" r="C2" s="1">
         <v>6</v>
       </c>
-      <c t="s" r="C2" s="1">
+      <c r="D2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" r="A3" s="1">
         <v>7</v>
       </c>
-      <c t="s" r="D2" s="1">
+      <c t="s" r="B3" s="1">
         <v>8</v>
       </c>
-      <c t="s" r="E2" s="1">
+      <c t="s" r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" r="A4" s="1">
         <v>9</v>
       </c>
+      <c t="s" r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c t="s" r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c t="s" r="B7" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="C7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c t="s" r="B8" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="C8" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c t="s" r="B9" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="C9" s="1">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
+  <autoFilter ref="A1:D9"/>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/SourceCode/HRManagement/HRManagement/bin/Debug/output.xlsx
+++ b/SourceCode/HRManagement/HRManagement/bin/Debug/output.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$K$9</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -14,70 +14,73 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Mã Bảo Hiểm</t>
-  </si>
-  <si>
-    <t>Tên Bảo Hiểm</t>
-  </si>
-  <si>
-    <t>Loại Bảo Hiểm</t>
+    <t>Mã Phòng Ban</t>
+  </si>
+  <si>
+    <t>Tên Phòng Ban</t>
+  </si>
+  <si>
+    <t>Mã Nhân Viên</t>
+  </si>
+  <si>
+    <t>Tên Nhân Viên</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Số Công</t>
+  </si>
+  <si>
+    <t>Lương Cơ Bản</t>
+  </si>
+  <si>
+    <t>Phụ cấp</t>
+  </si>
+  <si>
+    <t>Thuế TNCN</t>
+  </si>
+  <si>
+    <t>Bảo Hiểm Tham Gia</t>
   </si>
   <si>
     <t>Số Tiền</t>
   </si>
   <si>
-    <t>TG</t>
+    <t>GTGT</t>
+  </si>
+  <si>
+    <t>Phòng Giá trị gia tăng</t>
+  </si>
+  <si>
+    <t>VP01924</t>
+  </si>
+  <si>
+    <t>Vũ Văn Quân</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Nhân thọ</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Phi nhân thọ</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Sức khỏe</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Tai nạn lao động</t>
+  </si>
+  <si>
+    <t>Bảo hiểm Thất nghiệp</t>
   </si>
   <si>
     <t>Bảo hiểm tiền gửi</t>
   </si>
   <si>
-    <t>Bảo hiểm nhà nước</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Bảo hiểm Thất nghiệp</t>
-  </si>
-  <si>
-    <t>TNLD</t>
-  </si>
-  <si>
-    <t>Bảo hiểm Tai nạn lao động</t>
-  </si>
-  <si>
-    <t>XH</t>
-  </si>
-  <si>
     <t>Bảo hiểm Xã hội</t>
   </si>
   <si>
-    <t>YT</t>
-  </si>
-  <si>
     <t>Bảo hiểm Y tế</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>Bảo hiểm Nhân thọ</t>
-  </si>
-  <si>
-    <t>Bảo hiểm thương mại</t>
-  </si>
-  <si>
-    <t>PNT</t>
-  </si>
-  <si>
-    <t>Bảo hiểm Phi nhân thọ</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Bảo hiểm Sức khỏe</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="34.71" customWidth="1" style="1"/>
-    <col min="2" max="2" width="34.71" customWidth="1" style="1"/>
-    <col min="3" max="3" width="27.71" customWidth="1" style="1"/>
-    <col min="4" max="4" width="28" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9" customWidth="1" style="1"/>
+    <col min="3" max="3" width="9" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9" customWidth="1" style="1"/>
+    <col min="7" max="7" width="9" customWidth="1" style="2"/>
+    <col min="8" max="8" width="9" customWidth="1" style="2"/>
+    <col min="9" max="9" width="7.11" customWidth="1" style="2"/>
+    <col min="10" max="10" width="9" customWidth="1" style="1"/>
+    <col min="11" max="11" width="9.22" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -438,46 +448,130 @@
       <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
+      <c t="s" r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c t="s" r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c t="s" r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c t="s" r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c t="s" r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c t="s" r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c t="s" r="K1" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" r="A2" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c t="s" r="B2" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c t="s" r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c t="s" r="D2" s="1">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J2" s="1">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c t="s" r="B3" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c t="s" r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c t="s" r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J3" s="1">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c t="s" r="B4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c t="s" r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+        <v>13</v>
+      </c>
+      <c t="s" r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J4" s="1">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -489,73 +583,190 @@
         <v>12</v>
       </c>
       <c t="s" r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
+        <v>13</v>
+      </c>
+      <c t="s" r="D5" s="1">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J5" s="1">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="C6" s="1">
         <v>13</v>
       </c>
-      <c t="s" r="B6" s="1">
+      <c t="s" r="D6" s="1">
         <v>14</v>
       </c>
-      <c t="s" r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11000</v>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J6" s="1">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c t="s" r="B7" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c t="s" r="C7" s="1">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c t="s" r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J7" s="1">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c t="s" r="B8" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c t="s" r="C8" s="1">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
+        <v>13</v>
+      </c>
+      <c t="s" r="D8" s="1">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J8" s="1">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c t="s" r="B9" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c t="s" r="C9" s="1">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1000</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="D9" s="1">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1300000</v>
+      </c>
+      <c t="s" r="J9" s="1">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:K9"/>
+  <mergeCells count="10">
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="I2:I9"/>
+  </mergeCells>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D9" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>